--- a/datasets/extremism.xlsx
+++ b/datasets/extremism.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5484"/>
+    <workbookView xWindow="3060" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>class def</t>
+  </si>
+  <si>
+    <t>0-ok</t>
+  </si>
+  <si>
+    <t>1-suicide</t>
+  </si>
+  <si>
+    <t>2-nazism</t>
+  </si>
+  <si>
+    <t>3-extremism</t>
   </si>
   <si>
     <t>    Таким образом никто не внес большего вклада в истребление Человечества и людей на земле в разные исторические эпохи, чем русская нация.</t>
@@ -896,12 +911,363 @@
   <si>
     <t>Сражайтесь с теми из людей Писания, которые не веруют ни в Аллаха, ни в Последний день, которые не считают запретным то, что запретили Аллах и Его Посланник, которые не исповедуют истинную религию, пока они не станут собственноручно платить дань, оставаясь униженными. (Коран 9:29) ] Если же они будут сопротивляться, мусульмане могут их убить.</t>
   </si>
+  <si>
+    <t>Принципу "быстрее, выше, сильнее" не всегда следовали в спорте. Локальные соревнования и масштабные турниры иногда были омрачены нечестными выступлениями спортсменов. Топ-8 ярких примеров обмана — в материале РИА Новости. В 1960 году столица Италии принимала Игры, во время которых произошел курьез. В Риме дебютировала сборная Туниса по пятиборью, состоявшая из любителей. Зрители увидели слабое выступление представителей африканского государства. Например, пловец тонул в бассейне и просил помощи у организаторов. Еще три тунисца упали с лошадей во время соревнований по конкуру. Но и это было разогревом: тунисский стрелок вместо мишеней попадал по головным уборам судей. Практически вся команда была дисквалифицирована. В заявке остался лишь один спортсмен перед фехтовальным, завершающим этапом. Тем не менее, пятиборцы нашли выход. Оставшийся "выживший" выступал за себя и остальных ребят. МОК закрывал глаза на неопытность, но за хитрый проступок навсегда дисквалифицировал незадачливых тунисцев. Через шестнадцать лет в центре внимания оказалась советская сборная по пятиборью. В Монреале фехтовальщик Борис Онищенко желал взять золото не только в командном, но и личном первенстве.</t>
+  </si>
+  <si>
+    <t>Планы не удалось реализовать. Во время командных соревнований судьи дисквалифицировали Онищенко. Поводом стали поединки с Адрианом Паркером и Джимом Фоксом. В первом случае британец заметил, что Онищенко подозрительно легко побеждает. Даже если шпага не касалась Паркера, то в пользу советского спортсмена загорался зеленый свет. Судьи проигнорировали жалобу, но поединок с Фоксом заставил их насторожиться. Комиссия решила провести тщательный осмотр шпаги. В один момент в рукоятке отечественного спортсмена была обнаружена кнопка, скрытая замшей. Обман вскрылся: Онищенко нажимал на кнопку в нужный момент и электрический ток включал зеленую лампочку. МОК отстранил Онищенко от Игр, а сборная СССР снялась с соревнований, не выдержав позора. Еще один парадоксальный случай произошел на Паралимпиаде в Сиднее. </t>
+  </si>
+  <si>
+    <t>Мужская сборная Испании по баскетболу уверенно выиграла турнир, громя всех на своем пути. И вот спустя несколько лет один из испанских журналистов признался, что на самом деле в составе испанцев почти все были здоровы (10 из 12 человек не являлись умственно отсталыми игроками). После того, как история всплыла наружу, руководство испанского ПКР сразу подало в отставку. МОК в спешке аннулировал результаты лже-паралимпийцев, и вручил золотые медали сборной России. И все же скандальная история имела очень печальные последствия. Во всем мире национальные паралимпийские комитеты устроили массовые проверки команд и подозрения в нечистоплотности настоящих паралимпийцев. Негативный имидж приобрела сама Паралимпиада. В дальнейшем интерес СМИ и болельщиков к соревнованиям людей с ограниченными способностями заметно снизился</t>
+  </si>
+  <si>
+    <t>"Это была обычная церемония в турнире спортивных пар. Зачем мне с Леной было игнорировать ее?" — говорил Антон Сихарулидзе в интервью "Спорт-Экспрессу" об инциденте в Солт-Лейк-Сити. Хотя фигурист и совершил ошибку во время выхода из двойного акселя, Сихарулидзе с Еленой Бережной выполняли в тот вечер более сложные элементы. Главные преследователи – канадская пара Жами Сале и Давид Пеллетье — исполнили программу без ошибок. Мнения судей разделились: пять членов жюри отдали голоса за нашу пару, четыре – за канадцев. Итог соревнования разочаровал Северную Америку.</t>
+  </si>
+  <si>
+    <t>Главные СМИ Канады и США на следующий день пестрили острыми заголовками: статьи с заголовками "Скейтгейт", "Начало холодной войны" вызывающе обвиняли судей в продажности и необъективности. Давление прессы вынудило судейскую комиссию пересмотреть результаты. Глава комиссии Рональд Пфеннинг после расследования собрал пресс-конференцию, на которой объявил Сале и Пеллетье также победителями Олимпиады. Решение обуславливалось тем, что оценки французского арбитра Ле Гунь были аннулированы. Таким образом, обе пары набрали по четыре очка и получили золотые медали. В сентябре 1989-го сборной Чили кровь из носу была нужна победа над Бразилией на "Маракане". Любой другой результат закрывал дорогу на мундиаль 1990 года в Италию. На 70-й минуте бразильская торсида бросает на поле фаера. Один из снарядов падает рядом с вратарем гостей Роберто Рохасом. Взрыв, и чилиец мгновение спустя падает на газон как подкошенный. Раненого голкипера уносят с поля и отвозят в больницу, где Рохас показывает ожоги на руках и голове. Как потом выяснилось, травма вратаря "Сан-Паулу" оказалась спланированной акцией чилийской сборной. У тренера команды была запасная идея по поездке на мундиаль.</t>
+  </si>
+  <si>
+    <t>Травма Рохаса могла бы вынудить делегатов матча досрочно завершить игру и присудить Бразилии техническое поражение. Анализ экспертов тем не менее доказал, что голкипер не мог пострадать от петарды. Снаряд попал в спину и затем приземлился в метре от игрока. Порезы на руках и голове запутывали дело, пока Рохас не признался, что накануне матча порезал руки себе бритвой, а также спрятал лезвия в перчатках. В результате Бразилии присвоили техническую победу со счетом 2:0, а чилийский страж ворот схлопотал пожизненную дисквалификацию. Американка с кубинскими корнями, которой на тот момент было 27 лет, одержала победу в Бостонском марафоне в 1980 году. Результат Руис на тот момент впечатлял: клерк банка из Нью-Йорка показала третий результат в истории забега.</t>
+  </si>
+  <si>
+    <t> Впрочем, не все разделяли радость от победы. Скептики язвили: девушка никогда не занималась бегом, а в карьере Руис это был лишь второй марафон. На предыдущем девушке понадобилось три часа, чтобы преодолеть дистанцию. Кроме того, подозрение вызвало состояние Руис после финиша. Победительница не выглядела очень уставшей и истощенной. Загадочное выступление стало явью после показаний одной девушки-фотографа. По ее словам, кубинка пробежала два километра и затем незаметно вбежала в метрополитен. Другие свидетели подтвердили, как хитрая участница марафона вышла на станции метро, располагавшейся за километр до финиша. Тем же приемом спортсменка пользовалась и в дебютном марафоне за полгода до этого. Несостоявшаяся победительница отказалась возвращать золотую медаль даже после аннулирования результата. Организаторам пришлось сделать еще одну золотую медаль настоящему триумфатору, канадке Жаклин Гаро. "Формула-1" печально известна не только промышленным скандалом 2008 года и различными мелкими хитростями, учиненными участниками главной автоспортивной серии в различные годы. 1970-е в "Королевских гонках" тесно связаны с эпатажной командой "March".</t>
+  </si>
+  <si>
+    <t>Основатель "конюшни" Робин Херд заверял, что в дебютном же сезоне их болиды будут иметь лучшие двигатели и стабильно попадать в призовую тройку. Команда действительно ворвалась вихрем в гонки: Джеки Стюарт выиграл Гран-при Испании в 1971 году, а Ронни Петерсон стал вице-чемпионом мира год спустя. В 1975 году в "March" пришел Витторио Брамбилла. Итальянец в дебютном же сезоне поневоле оказался вовлеченным в инцидент. На Гран-при Швеции дебютант показал самое быстрое время (1:24), только никто не заметил подвоха от Херда. Глава "March" спустя годы признался в ловком трюке. Идея заключалась в следующем: перед тем, как Брамбилла пересек финишную линию, Херд перекрыл световой луч датчика-фиксатора с помощью обычной папки. По итогам сезона Брамбилла одну гонку все же выиграл. Единственная победа в карьере пилота произошла в Австрии, где итальянец потерял управление на круге почета и врезался в столб. Бельгийская велогонщица навсегда вписала свое имя в историю этого вида спорта — она первой была уличена в применении технического допинга. Молодежный чемпионат мира по велокроссу поначалу складывался для ван дер Дрише хорошо, но в какой-то момент девушка была вынуждена сойти с этапа из-за поломки велосипеда.</t>
+  </si>
+  <si>
+    <t>Во время техосмотра спортивного инвентаря судьи неожиданно обнаружили электрический мотор, подгоняющий заднее колесо. В результате спортсменка получила шестилетнюю дисквалификацию за свою шалость. Экспертиза показала, что бельгийка могла применять этот допинг на протяжении часа. После обвинения ван дер Дрише попыталась оправдаться: "Это был велосипед моего друга, он выглядит точно также. Механик мог перепутать наши байки. Я не боюсь расследования, я не сделала ничего плохого". Приятель велогонщицы, Нико ван Мюллер, подтвердил что велосипед с мотором действительно принадлежит ему. Однако, убедить UCI так и не удалось, а обвиняемая так и не созналась в проступке. Шестилетнее отстранение от велоспорта вступило в силу в ноябре 2015 года.</t>
+  </si>
+  <si>
+    <t>Олимпийская чемпионка в женском одиночном катании Алина Загитова опубликовала на своей странице в Instagram фотографии со съемок популярного шоу "Вечерний Ургант". В соцсети российская фигуристка выложила снимки с тренерами Этери Тутберидзе, Сергеем Дудаковым и Даниилом Глейхенгаузом. "Включайте сегодня "Вечерний Ургант" на "Первом канале". Будет что-то интересное", - подписала она пост. Олимпийская чемпионка также сфотографировалась с ведущим шоу Иваном Ургантом и известным музыкантом Василием Вакуленко. Загитова с декабря 2019 года приостановила карьеру и не принимает участие в официальных соревнованиях.</t>
+  </si>
+  <si>
+    <t>Лидер сборной России по лыжным гонкам Александр Большунов женился. Об этом в Instagram-сторис сообщила супруга лыжника Анна Жеребятьева. Спортсменка выложила пост, на котором молодожены на фоне ЗАГСа сфотографировались со свидетельством о браке. Большунов по итогам прошедшего сезона стал обладателем большого Хрустального глобуса. Для 24-летнего лыжника это был второй Глобус в карьере. Долгое время титулованный спортсмен встречался с Анной Жеребятьевой, которая приняла решение завершить карьеру. Экс-лыжница почти всегда присутствует на соревнованиях Большунова и поддерживает его. Недавно пара решила узаконить отношения. Торжественная часть назначена на 24 апреля.</t>
+  </si>
+  <si>
+    <t>У нас теперь в 16-17 девочки заканчивают выступать. Она мегапрофессионал", - поделилась мнением Слуцкая. Она также отметила, что несмотря на давление со стороны более молодых одиночниц, Туктамышева не боится показывать что-то новое и усложнять программу. "Она не боится и не стесняется. Да, ее зажимают, да, что-то не дают, но я от себя лично очень хочу пожелать, чтобы Лиза удержала эту форму, попала на Олимпиаду и выступила достойно. Пожалуй, у нас в России конкуренция в четыре раза выше, чем в мире, где в принципе конкуренции нет. Если смотреть на результаты чемпионата мира, то есть наши фигуристки. Потом - огромная дыра, и уж затем все остальные. Поэтому сейчас самое время выигрывать", - заявила специалист. В субботу сборная России впервые в своей истории заняла первое место на командном чемпионате мира по фигурному катанию. Туктамышева была капитаном национальной команды на турнире, который прошел в японской Осаке.</t>
+  </si>
+  <si>
+    <t>Двукратная чемпионка мира в женском одиночном катании Ирина Слуцкая оценила успешный сезон Елизаветы Туктамышевой. В интервью "Российской газете" специалист отметила высокий уровень профессионализма 24-летней фигуристки. "Она - пример профессионального спортсмена. Туктамышева, к сожалению, пропустила много лет. Она не выступала на чемпионатах Европы и мира. Но в то же время Лиза продолжала бороться, верить в лучший исход. Очень сложно назвать ее женщиной в возрасте. Это молодая девушка, но "ветеран" по меркам современного фигурного катания.</t>
+  </si>
+  <si>
+    <t>Автор комментария Gentilhomme — Vieille Canaille 84 осудил европейские СМИ, которые пытаются выставить Россию как мстительную и агрессивную страну. Комментатор под ником Dany L заключил, что никто не должен вмешиваться в ситуацию между Россией и Украиной, так как это лишь усилит напряженность. В последние недели Украина и страны Запада заявляли об обеспокоенности из-за "агрессивных действий" России в Крыму и на западной границе. Пресс-секретарь президента Дмитрий Песков заявил на это, что Россия перемещает войска в пределах своей территории, эти действия никому не угрожают и не должны никого волновать</t>
+  </si>
+  <si>
+    <t>Читатели Le Figaro с одобрением встретили новость о завершении учений российских войск в Южном и Западном военных округах и выразили Москве поддержку перед лицом западных стран. Накануне министр обороны Сергей Шойгу приказал до 1 мая вернуть в места постоянной дислокации войска, которые участвовали в маневрах. Комментатор под ником pck считает, что проведенные учения показали США, что "Россия не может вечно тянуть за резинку, не разорвав ее в один прекрасный день". "Спасибо, господин Путин. Западным лидерам надо понимать: Путин вас услышал. Послушайте теперь и его", — призвал anonyme. Пользователь под ником Ventdouest считает, что Россия не вмешивается в ситуацию в ДНР и ЛНР, а дестабилизация на востоке Украины происходит по вине Запада</t>
+  </si>
+  <si>
+    <t>Кроме того, на 25 апреля с вероятностью 40 процентов прогнозируется слабая магнитная буря. Вспышки классифицируются в зависимости от мощности: A, B, C, M и X. Как пояснял заведующий лабораторией Сергей Кузин, облака плазмы, которые выбрасывает в такие моменты Солнце, через два-три дня могут привести к магнитной буре на Земле. Считается, что слабая буря может спровоцировать незначительные сбои в работе энергосистем и повлиять на пути миграций птиц и животных, а более сильные сказываются на коротковолновой связи и навигационных системах, а также могут вызвать перепады напряжения в промышленных сетях.</t>
+  </si>
+  <si>
+    <t>Череда вспышек на Солнце продолжается третий день подряд, индекс активности подняли до оранжевого уровня, сообщается на сайте Лаборатории рентгеновской астрономии Солнца Физического института имени П. Н. Лебедева РАН. Так, накануне специалисты зафиксировали 11 вспышек класса С и выше, а сегодня уже произошли три — в 04:32, 05:37 и 08:09 мск. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отношения Москвы и Киева ухудшились в 2014 году после госпереворота в Киеве, воссоединения Крыма с Россией и начала гражданского противостояния в Донбассе. В последнее время обстановка на юго-востоке Украины обострилась, ополченцы обвиняют в этом силовиков, власти страны и Запад говорят об активности российских военных у границ. В Кремле отвергли все обвинения, заявив, что не являются стороной внутриукраинского конфликта. Также в Москве отметили, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства.
+Отношения Москвы и Киева ухудшились в 2014 году после госпереворота в Киеве, воссоединения Крыма с Россией и начала гражданского противостояния в Донбассе. В последнее время обстановка на юго-востоке Украины обострилась, ополченцы обвиняют в этом силовиков, власти страны и Запад говорят об активности российских военных у границ. В Кремле отвергли все обвинения, заявив, что не являются стороной внутриукраинского конфликта. Также в Москве отметили, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства.
+Отношения Москвы и Киева ухудшились в 2014 году после госпереворота в Киеве, воссоединения Крыма с Россией и начала гражданского противостояния в Донбассе. В последнее время обстановка на юго-востоке Украины обострилась, ополченцы обвиняют в этом силовиков, власти страны и Запад говорят об активности российских военных у границ. В Кремле отвергли все обвинения, заявив, что не являются стороной внутриукраинского конфликта. Также в Москве отметили, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства.
+Отношения Москвы и Киева ухудшились в 2014 году после госпереворота в Киеве, воссоединения Крыма с Россией и начала гражданского противостояния в Донбассе. В последнее время обстановка на юго-востоке Украины обострилась, ополченцы обвиняют в этом силовиков, власти страны и Запад говорят об активности российских военных у границ. В Кремле отвергли все обвинения, заявив, что не являются стороной внутриукраинского конфликта. Также в Москве отметили, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства.
+</t>
+  </si>
+  <si>
+    <t>Москва и Киев не могут наладить отношения из-за нежелания украинцев выслушать какие-либо доводы, написал музыкант Юрий Лоза в Facebook. По его мнению, именно в этом, а не в разных языках или типах мышления заключается самая большая сложность. В пример Лоза привел самого себя, пояснив, что если россияне открыты к обсуждению его заявлений, то украинцы даже его улыбку рассматривают как личное оскорбление. "Короче, пока тупик", — подытожил музыкант.</t>
+  </si>
+  <si>
+    <t>При падении легкомоторного самолета в Черемховском районе Иркутской области погибли два человека, сообщил РИА Новости представитель экстренных служб региона. По его словам, крушение произошло в поле неподалеку от поселка Рысево. По предварительным данным, воздушное судно было самодельное. Обстоятельства произошедшего выясняются. Восточно-Сибирское следственное управление на транспорте СК подтвердило факт падения самодельного самолета. По данным ведомства, один из погибших был владельцем и пилотом. На место выехали следователи и криминалисты, возбуждено уголовное дело.</t>
+  </si>
+  <si>
+    <t>Также в Москве отметили, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства</t>
+  </si>
+  <si>
+    <t>"С учетом нынешнего и будущего поведения США война неизбежна!" — посчитал alan. Автор комментария Mark B. напомнил, что ведение войны одновременно с Россией и Китаем — это "чрезмерно много даже для американских имперских неолиберальных интернационалистов". Отношения Москвы и Киева ухудшились в 2014 году после госпереворота в Киеве, возвращения Крыма и начала гражданского противостояния в Донбассе. В последнее время обстановка на юго-востоке Украины обострилась, ополченцы обвиняют в этом силовиков, власти страны и Запад говорят об активности российских военных у границ. В Кремле отвергли все обвинения, заявив, что не являются стороной внутриукраинского конфликта. </t>
+  </si>
+  <si>
+    <t>Читатели журнала The American Conservative назвали истинные цели США на Украине и раскритиковали Вашингтон за вмешательство "не в свои дела". Он также призвал власти подписать с Москвой соглашение о невмешательстве в дела друг друга. Комментатор под ником Feral Finster заявил, что Вашингтон использует Киев "в качестве дубинки для избиения России". "Мы будем кормить Украину красивыми обещаниями, но в итоге заставим ее сражаться с Россией "до последнего украинца" и не предоставим никакой реальной помощи", — посчитал chris chuba, отметив, что Киеву уже пора понять это и восстановить отношения с Москвой. Один из читателей подчеркнул, что США хотят начать новую холодную войну и осудил власти за то, что они рассматривают Россию как страну, которую "нужно вбить в подчинение". </t>
+  </si>
+  <si>
+    <t> Путин в ответ подчеркнул, что киевские власти должны прежде всего вести диалог с руководством самопровозглашенных Донецкой и Луганской народных республик, а потом уже с Кремлем. При этом он добавил, что готов принять Зеленского в Москве в любое время, если тот хочет обсудить двусторонние отношения. Пресс-секретарь украинского лидера Юлия Мендель позже заявила, что Зеленский "обязательно ответит" на предложение Путина.</t>
+  </si>
+  <si>
+    <t> Бывший президент Украины, глава делегации Киева в контактной группе по Донбассу Леонид Кравчук выступил против приезда Владимира Зеленского в Москву. "(Россия — Прим.ред.) говорит: пусть президент Украины приезжает в Москву. Зачем? Мол, на поклон", — сказал он в эфире "4 канала". В качестве альтернативы Москве для встречи с Владимиром Путиным экс-президент предложил Швейцарию или Финляндию. На днях Зеленский записал видеообращение, в котором предложил президенту России "встретиться в любой точке украинского Донбасса, где идет война".</t>
+  </si>
+  <si>
+    <t>Процесс проходил в закрытом режиме, материальны уголовного дела засекречены. Судя по статистике судебного департамента при Верховном суде, за государственную измену ежегодно получают сроки по четыре-шесть россиян, но в 2016-м был всплеск — сразу 14 приговоров. В апреле в Москве по подозрению в госизмене арестовали профессора МФТИ Валерия Голубкина, ему грозит до 20 лет лишения свободы. За несколько месяцев до этого также взяли под стражу другого преподавателя МФТИ и сотрудника ЦАГИ Анатолия Губанова. Как сообщали источники РИА Новости, его обвинили в передаче одной из европейских стран закрытых данных о сверхзвуковом гражданском летательном аппарате.</t>
+  </si>
+  <si>
+    <t>Мосгорсуд приговорил к 20 годам колонии с дальнейшим ограничением свободы на полтора года доцента кафедры МАИ Алексея Воробьева, сообщили РИА Новости в пресс-службе учреждения. Его также обязали выплатить миллион рублей штрафа. Ученого признали виновным в госизмене; попытке экспорта сырья или материалов, которые могут быть использованы для создания оружия массового поражения или средств его доставки; покушении на контрабанду таких веществ. Он получил максимальное наказание по статье о госизмене.</t>
+  </si>
+  <si>
+    <t>Многие согласились с мнением пользователя Ndr, что в случае военного конфликта России и США не будет победителей. "Если разразится Третья мировая война, кто-нибудь обязательно применит ядерное оружие, оказавшись на грани поражения. Слова Эйнштейна о том, что в Четвертой мировой войне будут сражаться палками и камнями, станут пророческими", — написал Nij. Некоторые из японцев также заявили, что Японии стоит иметь собственный ядерный потенциал. "Поскольку ядерное оружие — это сила сдерживания, у Японии с ее малочисленной армией должно быть много ядерных ракет. Прекрасные японские технологии необходимо применить для создания атомных авианосцев, подводных лодок и первых в мире атомных истребителей", — написал пользователь https110.</t>
+  </si>
+  <si>
+    <t>Читателей японского новостного сайта Yahoo News Japan обеспокоили слова главы Стратегического командования США адмирала Чарльза Ричарда о ядерном арсенале России. В ходе слушаний в сенате Ричард заявил, что для Соединенных Штатов сохраняется определенный уровень неопределенности относительно масштабов и местоположения российского арсенала, включая новейшие системы. Он отметил, что это вызывает озабоченность Вашингтона. Некоторые комментаторы выразили обеспокоенность из-за заявлений американского военного. </t>
+  </si>
+  <si>
+    <t>По закону "О средствах массовой информации" материалы зарубежных изданий, которые являются иноагентами, должны распространяться на территории России с соответствующей маркировкой. Это норма призвана информировать российского читателя о том, что они преследуют интересы других государств. Иноагентами могут быть также некоммерческие организации (НКО) и физлица. За нарушение требований маркировки предусматриваются штрафы в размере от двух до двух с половиной тысяч рублей для физических лиц и от четырех до пяти тысяч рублей для должностных лиц. Юрлицам придется заплатить от 40 до 50 тысяч рублей. *СМИ, выполняющее функции иноагента. **Некоммерческая организация, выполняющая функции иноагента.</t>
+  </si>
+  <si>
+    <t>Издание "Медуза"* внесли в список СМИ-иноагентов, сообщается на сайте Минюста России. "В реестр иностранных средств массовой информации, выполняющих функции иностранного агента, включены юридическое лицо, зарегистрированное в Латвийской Республике, SIA "Medusa Project"* (регистрационный номер 40103797863, дата регистрации 10.06.2014)", — говорится в публикации. В перечень также добавили общество с ограниченной ответственностью "Первое антикоррупционное СМИ"**</t>
+  </si>
+  <si>
+    <t>"Если у канала - неважно, будь то Russia Today, или другой российский канал, или не канал, а какое-то другое российское СМИ, или просто журналисты, - появляются проблемы за рубежом, которые являются явно политическими, мы будем отстаивать права наших журналистов", - пояснила она, пояснив, что имеет в виду проблемы, связанные, в частности, с давлением, политическим шантажом или преследованием по политическим мотивам. По ее словам, Москва будет применять меры, если со стороны Германии не будет каких-либо движений в сторону нормализации вопроса с российскими СМИ. "При этом я еще раз могу подчеркнуть, что мы будем действовать не всегда зеркально, но адекватно и симметрично", - сказала Захарова. Как заявил 5 марта на брифинге в Берлине представитель МИД ФРГ, угрозы о встречных мерах со стороны России в связи с ситуацией вокруг RT не соответствуют сути происходящего. МИД Германии утверждает, что немецкий кабмин не влиял на Commerzbank с целью прекращения отношений с Russia Today. Ранее Захарова заявила, что Россия будет вынуждена принять жесткие ответные меры в отношении немецких СМИ в РФ, если ФРГ не обеспечит нормальную работу российских СМИ.</t>
+  </si>
+  <si>
+    <t>Москва будет принимать меры против немецких средств массовой информации, работающих в России, в ответ на действия против российских в Германии, заявила официальный представитель министерства иностранных дел РФ Мария Захарова. Ранее сообщалось, что германский Commerzbank 26 февраля направил письменное уведомление о закрытии счетов Russia Today в Германии и Ruptly, доступ к осуществлению финансовых операций будет прекращен с 31 мая. "Да. Будет", - сказала Захарова в интервью телеканалу RT на немецком, отвечая на вопрос, будет ли Москва по зеркальному принципу принимать меры, которые могут коснуться немецких СМИ в России.</t>
+  </si>
+  <si>
+    <t>По мнению эксперта, страдающие от лишнего веса, а также люди с инсулин-резистентностью могут есть не очень сладкие яблоки, тогда это не окажет сильной нагрузки на поджелудочную железу из-за небольшого количества фруктозы. Кроме того, врач указала на большое содержание железа в яблоках, однако отметила, что при употреблении мяса этот элемент усваивается лучше, но для тех, кто его не ест, этот фрукт послужит отличной альтернативой. Ранее онколог Михаил Мяснянкин предупредил, что некоторые типы обработки продуктов могут привести к развитию рака. В частности, при жарке мяса на подсолнечном масле в еде появляются канцерогенные вещества, а регулярный прием пищи, содержащей канцерогены, грозит образованием злокачественных опухолей в органах пищеварительной системы.</t>
+  </si>
+  <si>
+    <t>Врач-диетолог Ольга Шмелева рассказала "Звезде", почему яблоки отличное средство в профилактике развития онкологических заболеваний. Специалист отметила, что этот фрукт богат витамином С — природным антиоксидантом и занимает важное место в предотвращении развития рака. Она также добавила, что много этого витамина содержится именно в свежих яблоках. Вместе с тем врач подчеркнула, что эти фрукты богаты клетчаткой, необходимой для нормальной работы кишечника</t>
+  </si>
+  <si>
+    <t> Официальный представитель МИД РФ Мария Захарова, комментируя заявления стран Прибалтики по высылке российских дипломатов, заявила, что власти этих стран могут не сомневаться в ответе России. Латвии, Литва и Эстония заявили, что высылают российских дипломатов в знак солидарности с Чехией. "В нашем ответе власти этих стран могут не сомневаться. Их дипломаты уже могут начать прикидывать, кому из них придется паковать вещи",- сказала она.</t>
+  </si>
+  <si>
+    <t> Так, в 2020 году специалисты радиотехнических войск обнаружили на 40 процентов больше иностранных самолетов-разведчиков, чем годом ранее. Всего в прошлом году РТВ засекли и сопроводили более двух миллионов объектов. МиГ-31 — истребитель-перехватчик, способный развивать скорость до трех скоростей звука. Самолет может нести четыре дальнобойные ракеты класса "воздух — воздух" Р-33.</t>
+  </si>
+  <si>
+    <t>Российский МиГ-31 поднимался в воздух для сопровождения американского самолета-разведчика над акваторией Тихого океана, сообщил отдел информационного обеспечения Тихоокеанского флота пресс-службы ВВО. Экипаж истребителя идентифицировал цель как стратегический самолет-разведчик RC-135 ВВС США. После разворота иностранного борта россияне вернулись на аэродром базирования. Как говорится в релизе, полет МиГ-31 выполнен в соответствии с международными правилами, нарушения границы не допущено. Активность в воздушном пространстве вблизи рубежей России постоянно растет.</t>
+  </si>
+  <si>
+    <t>Но он является принципиальным. Насколько в сегодняшнем евросоюзовском пространстве каждое государство сохраняет способность отстаивать свои интересы. То, что я сейчас вижу, и то, что мы все вместе наблюдаем, ответ отрицательный", — заключила представитель МИД. "Северный поток — 2" предполагает строительство двух ниток газопровода от побережья России через Балтийское море до Германии. Против проекта активно выступают США, продвигающие в ЕС свой сжиженный природный газ, а также Украина и ряд европейских стран. Вашингтон в декабре 2019 года ввел санкции против газопровода. В ФРГ выступают за достройку газопровода и отвергают односторонние экстерриториальные санкции США. По данным оператора проекта Nord Stream 2 AG (стопроцентная дочерняя компания "Газпрома"), на 31 марта "Северный поток — 2" был построен на 95 процентов, оставалось уложить 121 километр от общей протяженности газопровода по двум ниткам.</t>
+  </si>
+  <si>
+    <t> "Это проект экзистенциальный для Германии. Я так слышала от немецких представителей. Я читала аналитику немецких специалистов. Они квалифицируют данный энергетический проект для себя как экзистенциальный. Это бизнес-проект, он не связан с политикой, но он связан с развитием Германии", — заявила Захарова в интервью RT DE. В этой связи представитель МИД призывает задать вопрос: "А если завтра президент Соединенных Штатов Америки — Байден, Обама, Трамп или еще кто угодно — повелевает Германии перестать дышать, Германия послушает, перестанет дышать?" "Или все-таки поймет, что, если она не будет дышать, она не будет и существовать?" — отметила Захарова. По ее словам, это очень важный вопрос.</t>
+  </si>
+  <si>
+    <t> Официальный представитель МИД России Мария Захарова, комментируя проект газопровода "Северный поток — 2", считает, что в этом контексте принципиально важен ответ на вопрос, готово ли каждое из государств ЕС, в том числе Германия, сохранить способность отстаивать свои интересы, несмотря на то, что велят США.</t>
+  </si>
+  <si>
+    <t>О том, что это возможно, СМИ писали с февраля, но официальных подтверждений не было. Полеты в Египет приостановили в ноябре 2015 года после крушения российского авиалайнера над Синайским полуостровом, тогда погибли 224 человека. Регулярные рейсы в Каир восстановили в апреле 2018-го, но для чартеров туристические направления до сих пор оставались закрытыми. Местные аэропорты инспектировали несколько делегаций российских специалистов по авиабезопасности, последняя проверка завершилась в начале февраля.</t>
+  </si>
+  <si>
+    <t> Москва и Каир договорились полностью наладить двусторонние перелеты, рассказали в канцелярии главы Египта. "В ходе телефонного разговора президента Абдель Фаттаха ас-Сиси с президентом России Владимиром Путиным &lt;...&gt; достигнуто соглашение о полном возобновлении авиасообщения между аэропортами двух стран, в том числе аэропортами Хургады и Шарм-эш-Шейха", — заявил представитель египетского лидера Бассам Рад. Релиз есть в распоряжении РИА Новости. </t>
+  </si>
+  <si>
+    <t>Среди подозреваемых называли Александра Петрова и Руслана Боширова, которых Лондон разыскивает по делу об отравлении бывшего офицера ГРУ Сергея Скрипаля. В Кремле эти заявления назвали возмутительными и голословными, а Мария Захарова охарактеризовала ситуацию как "маразматический парад". Вслед за предъявленными обвинениями Прага выслала 18 сотрудников российского посольства. Москва в ответ объявила персонами нон грата 20 работников чешской дипмиссии, что составляет почти две трети персонала. В среду министр иностранных дел Чехии Якуб Кулганек потребовал от России вернуть в Москву высланных дипломатов, пригрозив в противном случае сократить численность персонала российского посольства до аналогичного чешскому. Захарова предложила Праге оставить ультиматумы для общения внутри НАТО. В четверг, не получив положительного ответа, Кулганек объявил о сокращении числа сотрудников дипмиссии России в Праге до паритетного, что означает семь дипломатов и 25 административно-технических работников</t>
+  </si>
+  <si>
+    <t>Комментируя эти решения Прибалтийских стран, официальный представитель российского внешнеполитического ведомства Мария Захарова заявила, что ответ Москвы последует. "В нашем ответе власти этих стран могут не сомневаться. Их дипломаты уже могут начать прикидывать, кому из них придется паковать вещи", — сказала она. Накануне о высылке трех сотрудников российского посольства в знак солидарности с Чехией объявила Словакия. На прошлой неделе Чехия обвинила Россию в причастности к взрыву на складе боеприпасов в Врбетице в 2014 году, в результате которого погибли два человека</t>
+  </si>
+  <si>
+    <t> Отмечается, что россияне должны покинуть Вильнюс в течение семи дней. Пресс-служба МИД Эстонии заявила, что российского посла Александра Петрова вызывали в ведомство, где ему выразили решительный протест в связи c информацией о взрыве 2014 года, полученной из Чехии. "В знак солидарности Эстония вышлет одного российского дипломата, деятельность которого не соответствует дипломатической деятельности, согласованной в Венской конвенции", — добавили в МИД.</t>
+  </si>
+  <si>
+    <t>Несмотря на это, столкновения и перестрелки между сторонами продолжаются. С февраля этого года ситуация ухудшилась: произошло покушение на комбата Народной милиции ДНР, украинские военные обстреляли из минометов Горловку и окраины Донецка, а бои ужесточились. В самопровозглашенных республиках считают, что Киев готовит масштабное наступление, стягивая к линии соприкосновения новые войска. В марте главнокомандующий ВСУ Руслан Хомчак назвал этот сценарий возможным. На этой неделе прошли очередные переговоры политических советников "нормандского формата" и представителей МИД России, Германии, Франции и Украины. По словам источника в российской делегации, встреча закончилась безрезультатно.</t>
+  </si>
+  <si>
+    <t> Об этом говорится в опубликованном рядом СМИ письме замглавы администрации президента России Дмитрия Козака. Он подтвердил подлинность документа. Политик также выразил надежду на конструктивное, открытое и честное обсуждение проектов решений по вопросам реализации Минских соглашений. Противостояние в Донбассе началось весной 2014 года, жертвами стали около 13 тысяч человек. Вопрос урегулирования обсуждают на встречах контактной группы в Минске. Ее участники приняли уже три документа, регламентирующие шаги по деэскалации.</t>
+  </si>
+  <si>
+    <t>Но когда вахта закончилась, работники не смогли забрать ее с собой и животное осталось одно в арктической пустыне. В самом зоопарке объяснили, что медведица, пока жила с вахтовиками, стала ручной. Поэтому выжить в дикой природе она не сможет. Но в скором времени она вырастет и будет представлять реальную угрозу для людей. К ситуации подключились краевое и федеральное Минприроды. В результате решили, что медведица будет жить в московском зоопарке. Сейчас она уже находится в столице.</t>
+  </si>
+  <si>
+    <t>Вахтовики золотодобывающей артели на севере Красноярского края спасли от гибели белого медвежонка, сообщили РИА Новости в парке флоры и фауны "Роев ручей". По словам собеседника агентства, в начале февраля маленькая медведица прибилась к людям на острове Большевик. </t>
+  </si>
+  <si>
+    <t>Они осмотрели место происшествия, но установить причину смерти 65-летнего жителя Южно-Сахалинска не представилось возможным. Тело отправили на судебно-медицинское исследование. Накануне сообщалось, что юго-восточное побережье Сахалина в районе поселка Пригородное усыпало тоннами крупной тихоокеанской сельди. Отмечается, что люди собирают рыбу ведрами. По словам ученых, такой массовый выброс — обычное явление для посленерестовой сельди, оно свидетельствует о восстановлении стада.</t>
+  </si>
+  <si>
+    <t>Житель Сахалина погиб, собирая сельдь, которой усыпало побережье острова, сообщила пресс-служба областного главка Следственного комитета. Это произошло в Корсаковском районе. Следователи проводят проверку. </t>
+  </si>
+  <si>
+    <t>Но осенью инфляция стала разгоняться и цикл смягчений поставили на паузу. Ситуация обострилась, и правительству пришлось заключить соглашения с бизнесом о стабилизации цен на подсолнечное масло и сахар, а также ввести зерновой демпфер и повысить экспортные пошлины на подсолнечник. Ранее президент России Владимир Путин в послании Федеральному собранию подчеркнул необходимость обеспечить макроэкономическую устойчивость и удерживать инфляцию около цели в четыре процента. При этом он подчеркнул, что власти должны использовать исключительно рыночные механизмы, а не устанавливать цены директивно. Ключевая ставка — минимальная процентная ставка, по которой ЦБ предоставляет кредиты коммерческим банкам на неделю и по которой готов принимать средства на депозиты. Банк России ввел ее как инструмент денежно-кредитной политики 13 сентября 2013 года в рамках перехода к режиму таргетирования инфляции для повышения прозрачности.</t>
+  </si>
+  <si>
+    <t>При этом поступательный рост экономики продолжится. Но промедление привело бы к необходимости более сильного повышения ставки в будущем. Возможно, даже потребовало бы проведения жесткой денежно-кредитной политики", — подчеркнула она. В прошлом году для преодоления последствий пандемии COVID-19 для экономики регулятор впервые использовал стимулирующую денежно-кредитную политику: летом ставку довели до исторического минимума в 4,25 процента годовых.</t>
+  </si>
+  <si>
+    <t> Такое решение призвано снизить темпы инфляции и укрепить курс национальной валюты. Также оно может привести к росту процентов по кредитам и депозитным вкладам. "Восстановление спроса приобретает все большую устойчивость и в ряде секторов опережает возможности наращивания выпуска", — отмечается в сообщении. При этом впервые с 2014 года ставка растет сразу на полпроцента. ЦБ также повысил прогноз по инфляции на 2021 год до 4,7-5,2 процента. По словам главы Банка России Эльвиры Набиуллиной, увеличивать ставку необходимо было именно сейчас. "Инфляционные процессы требуют более раннего возвращения к нейтральной политике, чем предполагалось раньше.</t>
+  </si>
+  <si>
+    <t>При этом он добавил, что готов принять Зеленского в Москве в любое время, если тот хочет обсудить двустороннюю повестку. В последнее время напряженность на юго-востоке Украины усилилась. Ополченцы обвиняют в этом украинских силовиков, Киев и Запад говорят об активности российских военных у границ. В Москве не раз подчеркивали, что заинтересованы в стабилизации ситуации у соседей, а также поясняли, что не собираются ни на кого нападать — власти вправе перемещать войска на своей территории без объяснения причин, это внутреннее дело государства.</t>
+  </si>
+  <si>
+    <t>Президенты России и Украины Владимир Путин и Владимир Зеленский в случае общения могут поговорить о двусторонних отношениях, заявили в Кремле. На днях Зеленский записал видеообращение, в котором предложил коллеге "встретиться в любой точке украинского Донбасса, где идет война". Путин отметил, что киевские власти должны прежде всего вести диалог с руководством самопровозглашенных Донецкой и Луганской народных республик, а потом уже с Кремлем.</t>
+  </si>
+  <si>
+    <t>По последним данным ООН, жертвами конфликта стали около 13 тысяч человек. Вопрос урегулирования ситуации в Донбассе обсуждается, в частности, в ходе встреч в Минске контактной группы, которая с сентября 2014 года приняла уже три документа, регламентирующих шаги по деэскалации конфликта. Однако и после соглашений о перемирии между сторонами конфликта продолжаются перестрелки. На этой неделе состоялись очередные переговоры политсоветников "нормандского формата". По словам источника в российской делегации, близкий к переговорам, встреча закончилась безрезультатно.</t>
+  </si>
+  <si>
+    <t>Москва предлагает Парижу и Берлину до 27 апреля обсудить вопросы перемирия на востоке Украины, встреча могла бы пройти в Донбассе с участием представителей Киева, Донецка и Луганска. "Подтверждаю свое предложение о возможности проведения таких переговоров непосредственно в зоне конфликта с участием представителей Украины и отдельных районов Донецкой и Луганской областей", - отметил он. Власти Украины в апреле 2014 года начали военную операцию против самопровозглашенных ЛНР и ДНР, которые заявили о независимости после госпереворота на Украине в феврале 2014 года. </t>
+  </si>
+  <si>
+    <t>Однако само разбиение на ресурсы не позволяет полноценно отличить одну операцию от другой. Для этого REST предлагает использовать HTTP-методы: POST (create), GET (read), PUT (update), DELETE. Если их использовать, то запрос однозначно сообщает серверу, чего он хочет: GET /account/123 означает необходимость получить ресурс "аккаунт" с идентификатором 123, DELETE /account означает необходимость удалить все имеющиеся аккаунты.</t>
+  </si>
+  <si>
+    <t>Использование HTTP-методов соответствует уровню зрелости REST 2. Когда вы слышите про REST API, вам, скорее всего, рассказывают про этот кейс - про деление на ресурсы и передачу конкретной операции через HTTP-метод.</t>
+  </si>
+  <si>
+    <t>И, наконец, есть третий уровень зрелости REST, но он (еще) практически нигде не используется. На этом уровне API отдает не только ресурсы, но и подсказки по управлению этими ресурсами. Если представить следующий листинг:</t>
+  </si>
+  <si>
+    <t>Ну так вот, что такое REST? REST - это парадигма организации API, которая подразумевает (помимо прочего) четкое разбиение на ресурсы и вызов операции с помощью конкретного HTTP-метода. Но - только в пределах этого рассказа и перетолков сугубо вебдевелоперского характера:</t>
+  </si>
+  <si>
+    <r>
+      <t>Что она вообще дает? Во-первых, API становится свежим и приятно пахнет - с ним легко и просто работать, потому что вы знаете, что от него ожидать, что ресурсы всегда будут представлены в одном и том же виде, и знаете это не только вы, но и любой API-клиент (и, более того, можно </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>соорудить api-клиент, не зная конечных ресурсов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242729"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>); во-вторых, эта логика относится не только к конкретному API, но и ко всем API, построенным по парадигме REST. Поэтому однажды освоившись с API github освоиться с любым другим REST API не составит никакого труда.</t>
+    </r>
+  </si>
+  <si>
+    <t>наука о живых существах и их взаимодействии со средой обитания. Изучает все аспекты жизни, в частности: структуру, функционирование, рост, происхождение, эволюцию и распределение живых организмов на Земле. Классифицирует и описывает живые существа, происхождение их видов, взаимодействие между собой и с окружающей средой</t>
+  </si>
+  <si>
+    <t>Клеточная теория — учение обо всём, что касается клеток. Все живые организмы состоят как минимум из одной клетки — основной структурно-функциональной единицы организмов. Базовые механизмы и химия всех клеток во всех земных организмах сходны; клетки происходят только от ранее существовавших клеток, которые размножаются путём клеточного деления. Клеточная теория описывает строение клеток, их деление, взаимодействие с внешней средой, состав внутренней среды и клеточной оболочки, механизм действия отдельных частей клетки и их взаимодействия между собой.</t>
+  </si>
+  <si>
+    <t>Эволюция. Через естественный отбор и генетический дрейф наследственные признаки популяции изменяются из поколения в поколение.</t>
+  </si>
+  <si>
+    <t>Теория гена. Признаки живых организмов передаются из поколения в поколение вместе с генами, которые закодированы в ДНК. Информация о строении живых существ или генотип используется клетками для создания фенотипа, наблюдаемых физических или биохимических характеристик организма. Хотя фенотип, проявляющийся за счёт экспрессии генов, может подготовить организм к жизни в окружающей его среде, информация о среде не передаётся назад в гены. Гены могут изменяться в ответ на воздействия среды только посредством эволюционного процесса.</t>
+  </si>
+  <si>
+    <t>Гомеостаз. Физиологические процессы, позволяющие организму поддерживать постоянство своей внутренней среды независимо от изменений во внешней среде.</t>
+  </si>
+  <si>
+    <t>Энергия. Атрибут любого живого организма, существенный для его состояния.</t>
+  </si>
+  <si>
+    <t>Форма и функции биологических объектов воспроизводятся из поколения в поколение генами, которые являются элементарными единицами наследственности. Физиологическая адаптация к окружающей среде не может быть закодирована в генах и быть унаследованной в потомстве (см. Ламаркизм). Примечательно, что все существующие формы земной жизни, в том числе, бактерии, растения, животные и грибы, имеют одни и те же основные механизмы, предназначенные для копирования ДНК и синтеза белка. Например, бактерии, в которые вводят ДНК человека, способны синтезировать человеческие белки.</t>
+  </si>
+  <si>
+    <t>Совокупность генов организма или клетки называется генотипом. Гены хранятся в одной или нескольких хромосомах. Хромосома — длинная цепочка ДНК, на которой может быть множество генов. Если ген активен, то последовательность его ДНК копируется в последовательности РНК посредством транскрипции. Затем рибосома может использовать РНК, чтобы синтезировать последовательность белка, соответствующую коду РНК, в процессе, именуемом трансляция. Белки могут выполнять каталитическую (ферментативную) функцию, транспортную, рецепторную, защитную, структурную, двигательную функции.</t>
+  </si>
+  <si>
+    <t>Гомеостаз — способность открытых систем регулировать свою внутреннюю среду так, чтобы поддерживать её постоянство посредством множества корректирующих воздействий, направляемых регуляторными механизмами. Все живые существа, как многоклеточные, так и одноклеточные, способны поддерживать гомеостаз. На клеточном уровне, например, поддерживается постоянная кислотность внутренней среды (pH). На уровне организма у теплокровных животных поддерживается постоянная температура тела. В ассоциации с термином экосистема под гомеостазом понимают, в частности, поддержание растениями и водорослями постоянной концентрации атмосферного кислорода и диоксида углерода на Земле.</t>
+  </si>
+  <si>
+    <t>Недавняя запись в Фейсбуке вызвала оживленные дискуссии среди моих друзей. Вот выдержки. </t>
+  </si>
+  <si>
+    <t>Вот такая вспышка страстей среди интеллектуалов-тяжеловесов по поводу коротких впечатлений от просмотра советского фильма производства Латвийской ССР. В ней, на самом деле, отразилась вся проблематика современного отношения к наследию советской интернациональной культуры. Предрассудков в нём больше, чем реального знания.</t>
+  </si>
+  <si>
+    <t>Автор: «Смотрю по "Культуре" телефильм "Смерть под парусом" по Чарльзу Сноу (1976 год, Рижская киностудия). Боже, как же были хороши прибалтийские актеры, изображая англичан для советской аудитории! И в какую же дыру и культурную провинцию превратились их страны, перестав быть советскими и став западными. Против исторической судьбы не попрешь. </t>
+  </si>
+  <si>
+    <t>Академик Международной академии телевидения и радио: Была дыра, дырой осталась. </t>
+  </si>
+  <si>
+    <t>Представительница славной адвокатской династии: «За прибалтов радоваться нужно, не жалеть. Жалеть нужно нас, граждан России… Прозябание - вещь относительная. Великую культуру делают личности, а не государство. Малые страны - часть большой Европы. Пусть у них нет своей великой культуры, но им доступна мировая. Она для них открыта без каких-либо изъятий. И они сами - часть этой культуры, когда творят.» </t>
+  </si>
+  <si>
+    <t>Новоиспеченный гражданин Израиля, в недавнем прошлом основатель российской региональной телестанции, бесцеремонно закрытой властями: «Они как раз были очень смешными и нелепыми, изображая из себя «Европу» в дурацких (в большинстве своём) советских фильмах. А сейчас они стали тем, кем и хотели стать - тихой провинциальной Европой, но настоящей, а не деланной… Не думаю, что то, что пришло к ним в 40-м-41-м, было их судьбой.» </t>
+  </si>
+  <si>
+    <t>Известный отечественный журналист и писатель-биограф: «Было великое грузинское кино в советские времена и нет его. И кто виноват, что его не стало? Неужели русские оккупанты? </t>
+  </si>
+  <si>
+    <t>Американский гражданин, экс-диссидент и политический ссыльный, в последние годы живет в Грузии: «Да всё деньги. Их в республиках просто нет. Половина Тбилиси уехала в Россию и Европу, половина Грузии -- в Тбилиси. Интеллигенция перестала существовать как класс. Русские тоже (их осталось 3 %, прессы/ТВ вообще нет) -- а ведь здесь родились Маяковский и Гиппиус. Раз в 100 лет какие-то культурные ивенты, но это все заезжие. Даже певцы (которые в Грузии отличные) чаще в Берлине, чем дома.» </t>
+  </si>
+  <si>
+    <t>Московский профессор, высокопоставленный международный чиновник в системе ОБСЕ: «Просто ты остался советским человеком, потому и страдаешь от нехватки вассальных шутов...» </t>
+  </si>
+  <si>
+    <t>Преподавательница русского языка для иностранных студентов в Москве: «Я всё больше и больше прихожу к мысли, что самые толерантные и мульти-культи люди, это т.н. "великорусские шовинисты" и "совки"». </t>
+  </si>
+  <si>
+    <t>И, наконец, резюме автора записи: «Странный разговор получается. Стоило посмотреть любимый фильм и посетовать, что прибалты из культурных лидеров Советского Союза, в том числе и для русских, превратились в задворки Западной Европы, признав историческую неизбежность такой деградации, как тебя тут же в великодержавном шовинизме обвиняют. Причем это-то здесь? Печаль моя светла. России тоже сепаратизм на пользу не пошел. Ее я тоже жалею.» </t>
+  </si>
+  <si>
+    <t>«Цирк»– это идеология в чистом виде, протранслированная в массы средствами талантливой кинопропаганды (напомним, что в СССР была принята ленинская концепция СМИ как «коллективного агитатора, пропагандиста и организатора»). На выходе - один из шедевров мирового киноискусства. Не забудем, что этот фильм появился в 1936 году, когда позади у страны была страшная принудительная коллективизация, а впереди – массовые политические репрессии 1937-1938 гг. </t>
+  </si>
+  <si>
+    <t>Жизнь, естественно, сложнее всяких схем. На других уровнях была и дискриминация по национальному признаку, массовые выселения в годы Великой Отечественной, непростые межнациональные отношения в сложносоставных республиках, таких как Грузия, автономные республики Северного Кавказа, Узбекистан, к которому приписали целые области, исторически населенные таджиками. Был и бытовой расизм. </t>
+  </si>
+  <si>
+    <t>Да, официальная идеология была лицемерной. Но именно официальная идеология суть то, что движет государственной стратегией и направляет денежные потоки. Под официальную идеологию дружбы народов была создана целая инфраструктура дружбы народов.</t>
+  </si>
+  <si>
+    <t>И тут мы переходим к «Смерти под парусом». Как и большое количество других художественных и телевизионных фильмов латвийских, литовских и эстонских мастеров –  это идеология в действии: республиканская киностудия, снимавшая кино на родном языке, великолепная плеяда актеров. Ни того, ни другого не могло существовать в независимых странах, чей рынок (населения Латвии накануне присоединения к СССР составляло менее 2 млн. человек) просто не способен был поддерживать сложное и дорогостоящее культурное производство за счет собственных средств. </t>
+  </si>
+  <si>
+    <t>«Цирк» и «Смерть под парусом» - это, если хотите, две точки отсчета в системе координат, описывающей то, что было принято называть пролетарским, позже социалистическим интернационализмом, а также «дружбой народов». Идея, так сказать, и воплощение. </t>
+  </si>
+  <si>
+    <t>Одна из ипостасей идеологии в данном конкретном случае – это задание рамок приличия. Определение того, что такое хорошо и что такое плохо. Политкорректности, говоря гораздо более поздним западным языком. С детского сада и до самой смерти советских людей учили, что все люди братья, что все народы равны и сильные должны помогать слабым. Что нации идут к сближению и образованию новой исторической общности, советский народ, через расцвет каждой из них. </t>
+  </si>
+  <si>
+    <t>И это не только «привилегия» играть западников, но и высокий социальный статус этих народов среди других народов СССР. Они были нашим советским Западом и западными людьми в стране, где низкопоклонство перед Западом суть общеизвестная родовая черта. Вспомним Александра Зиновьева: «Как говорится в популярной песне, Настоящие ибанцы/Уважают иностранцев. Но это не совсем точно. Ибанцы обожают иностранцев и готовы отдать им последнюю рубаху… Заветная мечта ибанца - чтобы его приняли за иностранца.»</t>
+  </si>
+  <si>
+    <t>Спор о том, полезны или вредны видеоигры, берет начало с тех давних времен, когда по темному экрану телевизора ползали вверх-вниз два белых прямоугольника, отбивавшие виртуальный мячик. Большинство людей считает компьютерные игры причиной множества психических и физических проблем – даже несмотря на отсутствие убедительных научных доказательств этому. Тяга к поиску простых решений лежит в основе человеческой природы, а компьютерные игры всегда были легкой мишенью. Мы предлагаем вам несколько доводов в пользу видеоигр.</t>
+  </si>
+  <si>
+    <t>Однако времена меняются, и сегодня существует достаточное количество профессиональных исследований, опровергающих заявления об однозначно вредном воздействии игр на психику и здоровье. Прежде чем начнете читать, вспомните – во всем должна быть мера. Никакая польза от видеоигр не оправдывает ежедневное десятичасовое погружение в виртуальный мир.</t>
+  </si>
+  <si>
+    <t>В исследовании 2009 года приняла участие группа опытных геймеров, чьей специализацией были «Call of Duty» и «Unreal Tournament 2004». Вторая группа играла в медленные игры, такие как «Sims 2». Тесты показали улучшение зрения игроков в шутер. Руководитель исследования Дафна Бавелье пришла к выводу, что такие игры развивают способность, которая называется контрастной чувствительностью.</t>
+  </si>
+  <si>
+    <t>Эта способность позволяет нам различать оттенки серого на цветном фоне, и особенно важна при управлении автомобилем в ночное время.</t>
+  </si>
+  <si>
+    <t>Видеоигры способствуют социальной адаптации</t>
+  </si>
+  <si>
+    <t>Распространенный стереотип описывает человека, увлеченного миром компьютерных игр, как застенчивого или даже асоциального. Ученые трех разных университетов США и Великобритании установили, что геймеры, принимающие участие в социальной жизни, очень общительны и дружелюбны</t>
+  </si>
+  <si>
+    <t>Теологическое. В соответствии с данным представлением политика, равно как и жизнь в целом, имеет божественное происхождение.</t>
+  </si>
+  <si>
+    <t>Социальная дифференциация, в том числе по этническому и религиозному признаку, становится более выраженной.</t>
+  </si>
+  <si>
+    <t>Демографический рост и расширение экономической деятельности актуализируют проблему независимости того или иного сообщества от других, а также задачу сохранения целостности территорий, находящихся под контролем указанного сообщества.</t>
+  </si>
+  <si>
+    <t>В античности полисы (греч. πόλις) исторически формировались как городские общины с самоуправлением, которые конституировали себя в качестве политической формации, общности — эта форма самоорганизации общества была типична для Древней Греции. Получила развитие и распространение через Италию и непосредственно через Римскую империю. С ростом государств и империй политика взаимоотношений с обширными территориями требовала изменчивости политики и совершенствования системы управления. Политика как методология управления формировалась в полисах, где сосредотачивалась управленческая элита и различные сословия (ремёсла, искусства, школы), в которых формировалась будущая элита.</t>
+  </si>
+  <si>
+    <t>Сам по себе рассматриваемый термин был введён в IV веке до н. э. Аристотелем, который предлагал для него следующее определение: политика — искусство управления государством (полисом). Впрочем, политика выделилась в качестве отдельной области социального бытия задолго до этого события — хотя и позднее, нежели, например, экономические отношения или мораль. Существует несколько различных представлений о природе и происхождении политики:</t>
+  </si>
+  <si>
+    <t>Антропологическое. Такой подход увязывает политику с человеческой природой: предполагается, что соответствующий род общения и взаимодействия с другими людьми продиктован сущностью человека (и, с другой стороны, сам влияет на эту сущность, обусловливая ряд самоограничений и других характерных черт, отличающих человека от животного).</t>
+  </si>
+  <si>
+    <t>Биологическое. Подобная трактовка, напротив, подразумевает, что природа политики должна пониматься на базе общих для человека и животного начал — таких, к примеру, как агрессивность, инстинкт самосохранения, борьба за выживание и т. п. Этолог К. Лоренц, в частности, увязывал с феноменом агрессивности войны, революции и другие конфликты, имеющие место в жизни общества.</t>
+  </si>
+  <si>
+    <t>Психологическое. Согласно этому представлению первоисточником политического взаимодействия между людьми являются потребности, интересы, эмоции и другие проявления человеческой психики. В традиционном для себя ключе политику трактовал, к примеру, З. Фрейд, ассоциировавший природу политики с бессознательным.</t>
+  </si>
+  <si>
+    <t>Социальное. Соответствующий подход предполагает, что политика является порождением общества и сформировалась в ходе эволюции последнего — по мере роста его сложности и развития социальной стратификации. В качестве отправной точки данных общественных изменений может рассматриваться неолитическая революция, которая повлияла как на формы хозяйствования, так и на образ жизни людей в целом. Логика появления политики при этом имеет примерно следующий вид:</t>
+  </si>
+  <si>
+    <t>Рост продуктивности человеческой деятельности обусловливает появление частной собственности. Последняя, в свою очередь, способствует развитию экономики, её специализации, а также формированию новых социальных объединений, углубляет автономность и независимость личности, обеспечивая ей возможность достичь определённого положения в обществе экономическим путём, а также усиливает расслоение общества по имущественному признаку, порождая конфликты.</t>
+  </si>
+  <si>
+    <t>Соответственно, политика возникает в связи с утратой возможности разрешить изложенные выше проблемы и конфликтные ситуации традиционными методами — посредством обычаев, моральных установок и т. п. Наравне с правом политика выступает в роли одного из новых регуляторов, предназначенных для решения этих проблем; кроме того, с той же целью формируется и государство как новая форма структуризации и организации жизни людей. В силу этого, понятие политики непосредственным образом связывается с понятиями государства и власти. В концепции политолога М. Дюверже выделяются три формы власти — анонимная, индивидуализированная и институционализированная; первые две определяются как догосударственные, а третья — как собственно государственная, имеющая публичный характер и обусловливающая появление политики.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1324,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -979,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -998,6 +1386,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1302,21 +1695,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C441"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,3411 +1719,3574 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="331.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="180" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="235.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="276.60000000000002" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="262.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="285" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="221.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="180" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="207.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="318" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="318" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="111" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="193.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="83.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B301" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B304" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B305" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B306" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B307" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B308" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B309" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B310" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/extremism.xlsx
+++ b/datasets/extremism.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4470" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>1-suicide</t>
-  </si>
-  <si>
-    <t>2-nazism</t>
   </si>
   <si>
     <t>3-extremism</t>
@@ -1262,12 +1259,105 @@
   <si>
     <t>Соответственно, политика возникает в связи с утратой возможности разрешить изложенные выше проблемы и конфликтные ситуации традиционными методами — посредством обычаев, моральных установок и т. п. Наравне с правом политика выступает в роли одного из новых регуляторов, предназначенных для решения этих проблем; кроме того, с той же целью формируется и государство как новая форма структуризации и организации жизни людей. В силу этого, понятие политики непосредственным образом связывается с понятиями государства и власти. В концепции политолога М. Дюверже выделяются три формы власти — анонимная, индивидуализированная и институционализированная; первые две определяются как догосударственные, а третья — как собственно государственная, имеющая публичный характер и обусловливающая появление политики.</t>
   </si>
+  <si>
+    <t>2-politics</t>
+  </si>
+  <si>
+    <t>19 декабря в Анкаре неизвестный убил посла России в Турции Андрея Карлова.</t>
+  </si>
+  <si>
+    <t>Ведь когда авторитарный колосс рушится, горячка демократических преобразований будет мешать продумыванию деталей.</t>
+  </si>
+  <si>
+    <t>К концу путинского политического режима страна может подойти более подготовленной к новой жизни, чем 30 лет назад, в канун конца советского режима.</t>
+  </si>
+  <si>
+    <t>Абызов, в отношении которого возбуждены уже три уголовных дела (создание преступного сообщества, мошенничество вкупе с незаконным участием в предпринимательской деятельности и отмыванием преступных доходов), похитил и вывел за рубеж четыре миллиарда рублей.</t>
+  </si>
+  <si>
+    <t>Алексея Навального представляют нам как надежду на лучшее будущее России. Бывший британский разведчик Джон Колеман писал: «К любому лидеру, производящему впечатление сильной личности и появляющемуся внезапно, чтобы "спасти" нацию, нужно относиться с крайним подозрением. Вспомним, что британская разведка много лет готовила Хомейни к его миссии, особенно во время его пребывания в Париже, прежде чем он внезапно появился как спаситель Ирана».</t>
+  </si>
+  <si>
+    <t>Известно, что Навальный учился в Америке, в Йельском университете по программе "Лидеры мира"</t>
+  </si>
+  <si>
+    <t>В Йельском университете с Навальным учились на одном курсе такие революционеры, как Fares Mabrouk - Активист тунисской революции, получивший нефтяную вышку в подарок) и Lumumba Di-Aping - активист революции в Судане. Навальный сам говорит, что хочет осуществить «тунисский сценарий» в нашей стране:</t>
+  </si>
+  <si>
+    <t>Навальный сам говорит, что хочет осуществить «тунисский сценарий» в нашей стране: - Я думаю, власть в России сменится не в результате выборов. - Тунисский или ливийский вариант? - Мы называем это тунисским сценарием, потому что нет другого названия. - Другими словами, вы ждете, когда пойдет волна снизу? - Я не жду, я ее организую.</t>
+  </si>
+  <si>
+    <t>Сам Навальный не живет по тем принципам, о которых громогласно заявляет. Например: если ты хочешь менять Россию — твои дети должны учиться здесь, в России. Но его дочь поступила в Стэнфордский университет и будет учиться там бесплатно.</t>
+  </si>
+  <si>
+    <t>Недавно стало известно, что за свои разоблачительные материалы Навальный получал внушительную зарплату. Чтобы делать это тайно и анонимно — вознаграждения ему переводили в электронной валюте — биткойнах. Так, за день до выхода видео о британском гражданстве Сергея Брилева ему перевели 19,9 биткоинов или 5,5 миллионов в переводе на рубли. Аналогичная ситуация произошла с видеороликом о председателе правления Пенсионного фонда Антоне Дроздове. Тогда Алексей Навальный обогатился на 12,4 биткоинов. Да и информацию разоблачительную ему явно подбрасывают из очень компетентных структур.</t>
+  </si>
+  <si>
+    <t>Навальный готовится возглавить очередную цветную революцию в угоду Западу. Но Россия этого уже просто не выдержит. Стране нужны реальные перемены к лучшему, а не артистичность поводырей от ЦРУ</t>
+  </si>
+  <si>
+    <t>В 2004 году в результате Оранжевой революции Януковича сменил Ющенко. К концу срока народ в нем крайне разочаровался. Ющенко сменили опять на Януковича, затем Януковича на Майдане сменили на Порошенко, которого за 4 года просто возненавидели. Сейчас Порошенко сменили на комедийного актера Зеленского по принципу «Кто угодно — лишь бы не Порошенко». Но рука кукловода за этим процессом — одна и та же.</t>
+  </si>
+  <si>
+    <t>Путин много сделал против коррупции во 100 раз чем Навальный. Но люди тянутся Навальному. Почему?</t>
+  </si>
+  <si>
+    <t>Значит власть такая слабая, что любой умеющий драть горлом, разбивает её в пух и прах. Люди далеки от коррупции их даже к ней на пушечный выстрел не подпустят. Зато каждый день видят все увеличивающуюся пропасть между богатыми и бедными. Видят власть садящуюся в дорогие машины. Пожирающей яства на банкетах. И предлагающей простому народу питаться макарошками. Как думаете кому больше поверят?</t>
+  </si>
+  <si>
+    <t>Навальный как и Авксеньтева любят очень пиариться. Тут все просто, есть человек с хорошими амбициями который подбирает хорошую команду для грамотного пиара и начинается работа по оболваниванию людей. Главное громкие заголовки, выделение определенных острых тем и типа возможности их решения, а также этот человек постоянно должен говорит что я за народ. Тогда успех гарантирован.</t>
+  </si>
+  <si>
+    <t>Потому что этот френдоворовской политический застой надоел людям настолько , что уже поверят и черту рогатому</t>
+  </si>
+  <si>
+    <t>да . у Путина есть власть.</t>
+  </si>
+  <si>
+    <t>На счёт Навального ничего не скажу. Что он сделал или не сделал. Но борьбы с коррупцией лично не вижу. Есть показательные и выборочные порки неугодных и все. Систематической справедливой борьбы с коррупцией нет</t>
+  </si>
+  <si>
+    <t>Потому что Путин под видом борьбы с коррупцией убрал тех кто ему не нужен, и поставил своих дружков коррупционеров. Создал свою систему разбазаривания России, более завуалированную не такую явную как раньше.</t>
+  </si>
+  <si>
+    <t>Вон приструнили медведева за то что с зарубежными странами улучшать.отношения стал, из за ревности и приструнил. Хотя дворец Димонна по сравнению с Царем конура где то на рублевке))) а если бы медведев так и остался может между рублем и долларом таких разниц небыло б!!!</t>
+  </si>
+  <si>
+    <t>Кремль собирается в кратчайшие сроки ликвидировать ФБК* и за счет этого обеспечить «стабильность». Однако последнее у него не получится — по причинам историческим</t>
+  </si>
+  <si>
+    <t>Путин намерен как можно быстрее полностью уничтожить сеть Фонда борьбы с коррупцией и штабов Навального. Представители единственной реальной оппозиции в России будут признаны «экстремистами». Нынешний режим настолько сконцентрирован на собственном выживании, что пытается застраховаться от любых случайностей. Можно прекратить дискутировать о том, насколько Кремлю вредило «умное голосование» по методу Навального. За красной стеной, похоже, считают, что могло навредить.</t>
+  </si>
+  <si>
+    <t>Путин хочет приехать на саммит с Байденом в июне с полностью зачищенным домашним политическим полем. Для него важно показать: мол, никакой смены режима у вас, дорогие вашингтонские друзья, не выйдет. Придется со мной договариваться. Ведь я вам нужен: для переговоров о новом договоре СНВ, обсуждения иранской ядерной программы, сирийского вопроса, будущего Афганистана, изменения климата (а как же без него?). Кстати, на той же встрече с американским президентом Путин может сделать широкий жест — предложить обменять Навального на Виктора Бута: забирайте, дескать, своего агента!</t>
+  </si>
+  <si>
+    <t>Однако главная причина почти неминуемой ликвидации ФБК, как мне кажется, вот в чем: это единственная оппозиционная сила, которая пользуется настоящей популярностью у молодежи и у людей с активной жизненной позицией. Все эти законы о запрете ведения не одобренной сверху просветительской деятельности, приход полицейских к знаменитому историку Тамаре Эйдельман и увольнения неугодных преподавателей Высшей школы экономики — явления одного порядка. Все они направлены на формирование «правильного» взгляда на жизнь у тех, кому между двадцатью и тридцатью.</t>
+  </si>
+  <si>
+    <t>Пусть хотя бы ответят: Чей это дворец? Если это резиденция Путина - то для чего она такая и сколько стоит ее содержание? Если это его личная собственность - то откуда деньги? Если олигархов - какого ### её охраняет ФСБ ?</t>
+  </si>
+  <si>
+    <t>Какой вывод должен сделать нормальный человек - Путин не такой корупционер как показал навальный, а чуть помельче. Полностью оправдан!</t>
+  </si>
+  <si>
+    <t>Заебали, один усирается, что аналогичный дворец (который, кстати, нихера не аналогичный) стоит дешевле, чем Навальный озвучил, второй вот до ершика доебался, как будто это что-то меняет. А по сути то два вопроса: чей дворец и нахуя и одна огромная претензия: не охуели ли власти. Остальное: Навальный, ершики и пр. второстепенные вопросы.</t>
+  </si>
+  <si>
+    <t>Путин пидорас</t>
+  </si>
+  <si>
+    <t>Автор ты дурак? Я тебе скажу, что 90% все кого я знаю на работе, родственники и друзья.</t>
+  </si>
+  <si>
+    <t>Громко в голос смеются над Навальным, это настолько косячный, что не может никакую оппозицию возглавлять, только то что он пытается себя в Президенты выдвинуть и возглавить собою все что можно оппозиционное, уже отталкивает от того что бы идти с ним в одном строю.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1436,56 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1367,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1391,6 +1531,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1697,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1742,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1756,13 +1906,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,13 +1920,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1795,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1806,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1817,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1828,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1839,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1850,7 +2000,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1861,7 +2011,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1872,7 +2022,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1883,7 +2033,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1894,7 +2044,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1905,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1916,7 +2066,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1927,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1938,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1949,7 +2099,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1960,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1971,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1982,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1993,7 +2143,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2004,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2015,7 +2165,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2026,7 +2176,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2037,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2048,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2059,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2070,7 +2220,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2081,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2092,7 +2242,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2103,7 +2253,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2114,7 +2264,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2125,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2136,7 +2286,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -2147,7 +2297,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2158,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2169,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2180,7 +2330,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2191,7 +2341,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2202,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2213,7 +2363,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2224,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2235,7 +2385,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2246,7 +2396,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2257,7 +2407,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2268,7 +2418,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2279,7 +2429,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2290,7 +2440,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2301,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2312,7 +2462,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2323,7 +2473,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2334,7 +2484,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2345,7 +2495,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -2356,7 +2506,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -2367,7 +2517,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -2378,7 +2528,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2389,7 +2539,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2400,7 +2550,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2411,7 +2561,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2422,7 +2572,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -2433,7 +2583,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2444,7 +2594,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -2455,7 +2605,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2466,7 +2616,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -2477,7 +2627,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2488,7 +2638,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -2499,7 +2649,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -2510,7 +2660,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -2521,7 +2671,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2532,7 +2682,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2543,7 +2693,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -2554,7 +2704,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2565,7 +2715,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -2576,7 +2726,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -2587,7 +2737,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -2598,7 +2748,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2609,7 +2759,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2620,7 +2770,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -2631,7 +2781,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2642,7 +2792,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2653,7 +2803,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2664,7 +2814,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -2675,7 +2825,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -2686,7 +2836,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -2697,7 +2847,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -2708,7 +2858,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -2719,7 +2869,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2730,7 +2880,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -2741,7 +2891,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -2752,7 +2902,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2763,7 +2913,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2774,7 +2924,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -2785,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2796,7 +2946,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2807,7 +2957,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>3</v>
@@ -2818,7 +2968,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2829,7 +2979,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -2840,7 +2990,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -2851,7 +3001,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -2862,7 +3012,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -2873,7 +3023,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -2884,7 +3034,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -2895,7 +3045,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -2906,7 +3056,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -2917,7 +3067,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -2928,7 +3078,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -2939,7 +3089,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -2950,7 +3100,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -2961,7 +3111,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -2972,7 +3122,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -2983,7 +3133,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -2994,7 +3144,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -3005,7 +3155,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -3016,7 +3166,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -3027,7 +3177,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -3038,7 +3188,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -3049,7 +3199,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -3060,7 +3210,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -3071,7 +3221,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -3082,7 +3232,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -3093,7 +3243,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -3104,7 +3254,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -3115,7 +3265,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -3126,7 +3276,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -3137,7 +3287,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -3148,7 +3298,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -3159,7 +3309,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -3170,7 +3320,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -3181,7 +3331,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -3192,7 +3342,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="1">
         <v>1</v>
@@ -3203,7 +3353,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -3214,7 +3364,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -3225,7 +3375,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -3236,7 +3386,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" s="1">
         <v>1</v>
@@ -3247,7 +3397,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -3258,7 +3408,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -3269,7 +3419,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="1">
         <v>1</v>
@@ -3280,7 +3430,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
@@ -3291,7 +3441,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -3302,7 +3452,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
@@ -3313,7 +3463,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -3324,7 +3474,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" s="1">
         <v>1</v>
@@ -3335,7 +3485,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
@@ -3346,7 +3496,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -3357,7 +3507,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" s="1">
         <v>1</v>
@@ -3368,7 +3518,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -3379,7 +3529,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
@@ -3390,7 +3540,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -3401,7 +3551,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -3412,7 +3562,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -3423,7 +3573,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1">
         <v>1</v>
@@ -3434,7 +3584,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -3445,7 +3595,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" s="1">
         <v>1</v>
@@ -3456,7 +3606,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
@@ -3467,7 +3617,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
@@ -3478,7 +3628,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -3489,7 +3639,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -3500,7 +3650,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1">
         <v>1</v>
@@ -3511,7 +3661,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163" s="1">
         <v>1</v>
@@ -3522,7 +3672,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164" s="1">
         <v>1</v>
@@ -3533,7 +3683,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165" s="1">
         <v>1</v>
@@ -3544,7 +3694,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166" s="1">
         <v>1</v>
@@ -3555,7 +3705,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167" s="1">
         <v>1</v>
@@ -3566,7 +3716,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C168" s="1">
         <v>1</v>
@@ -3577,7 +3727,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C169" s="1">
         <v>1</v>
@@ -3588,7 +3738,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170" s="1">
         <v>1</v>
@@ -3599,7 +3749,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -3610,7 +3760,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -3621,7 +3771,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" s="1">
         <v>1</v>
@@ -3632,7 +3782,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" s="1">
         <v>1</v>
@@ -3643,7 +3793,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -3654,7 +3804,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -3665,7 +3815,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1">
         <v>1</v>
@@ -3676,7 +3826,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1">
         <v>1</v>
@@ -3687,7 +3837,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1">
         <v>1</v>
@@ -3698,7 +3848,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" s="1">
         <v>1</v>
@@ -3709,7 +3859,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" s="1">
         <v>1</v>
@@ -3720,7 +3870,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -3731,7 +3881,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" s="1">
         <v>1</v>
@@ -3742,7 +3892,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" s="1">
         <v>1</v>
@@ -3753,7 +3903,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
@@ -3764,7 +3914,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1">
         <v>1</v>
@@ -3775,7 +3925,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" s="1">
         <v>1</v>
@@ -3786,7 +3936,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" s="1">
         <v>1</v>
@@ -3797,7 +3947,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
@@ -3808,7 +3958,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C190" s="1">
         <v>1</v>
@@ -3819,7 +3969,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="1">
         <v>1</v>
@@ -3830,7 +3980,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
@@ -3841,7 +3991,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -3852,7 +4002,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -3863,7 +4013,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195" s="1">
         <v>1</v>
@@ -3874,7 +4024,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
@@ -3885,7 +4035,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="1">
         <v>1</v>
@@ -3896,7 +4046,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
@@ -3907,7 +4057,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
@@ -3918,7 +4068,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" s="1">
         <v>1</v>
@@ -3929,7 +4079,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" s="1">
         <v>1</v>
@@ -3940,7 +4090,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" s="1">
         <v>1</v>
@@ -3951,7 +4101,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3962,7 +4112,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3973,7 +4123,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3984,7 +4134,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3995,7 +4145,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4006,7 +4156,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4017,7 +4167,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4028,7 +4178,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -4039,7 +4189,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -4050,7 +4200,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -4061,7 +4211,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" s="1">
         <v>0</v>
@@ -4072,7 +4222,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -4083,7 +4233,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
@@ -4094,7 +4244,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" s="1">
         <v>0</v>
@@ -4105,7 +4255,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C217" s="1">
         <v>0</v>
@@ -4116,7 +4266,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -4127,7 +4277,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -4138,7 +4288,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" s="1">
         <v>0</v>
@@ -4149,7 +4299,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="1">
         <v>0</v>
@@ -4160,7 +4310,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -4171,7 +4321,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" s="1">
         <v>0</v>
@@ -4182,7 +4332,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" s="1">
         <v>0</v>
@@ -4193,7 +4343,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" s="1">
         <v>0</v>
@@ -4204,7 +4354,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" s="1">
         <v>0</v>
@@ -4215,7 +4365,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" s="1">
         <v>0</v>
@@ -4226,7 +4376,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -4237,7 +4387,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -4248,7 +4398,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -4259,7 +4409,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -4270,7 +4420,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -4281,7 +4431,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -4292,7 +4442,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" s="1">
         <v>0</v>
@@ -4303,7 +4453,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -4314,7 +4464,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" s="1">
         <v>0</v>
@@ -4325,7 +4475,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -4336,7 +4486,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -4347,7 +4497,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -4358,7 +4508,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -4369,7 +4519,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
@@ -4380,7 +4530,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" s="1">
         <v>0</v>
@@ -4391,7 +4541,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
@@ -4402,7 +4552,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -4413,7 +4563,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
@@ -4424,7 +4574,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
@@ -4435,7 +4585,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -4446,7 +4596,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
@@ -4457,7 +4607,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
@@ -4468,7 +4618,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -4479,7 +4629,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
@@ -4490,7 +4640,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -4501,7 +4651,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
@@ -4512,7 +4662,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -4523,7 +4673,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" s="1">
         <v>0</v>
@@ -4534,7 +4684,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" s="1">
         <v>0</v>
@@ -4545,7 +4695,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -4556,7 +4706,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
@@ -4567,7 +4717,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C259" s="1">
         <v>0</v>
@@ -4578,7 +4728,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C260" s="1">
         <v>0</v>
@@ -4589,7 +4739,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -4600,7 +4750,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -4611,7 +4761,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C263" s="1">
         <v>0</v>
@@ -4622,7 +4772,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
@@ -4633,7 +4783,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -4644,7 +4794,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C266" s="1">
         <v>0</v>
@@ -4655,7 +4805,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -4666,7 +4816,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -4677,7 +4827,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -4688,7 +4838,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270" s="1">
         <v>0</v>
@@ -4699,7 +4849,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -4710,7 +4860,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -4721,7 +4871,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C273" s="1">
         <v>0</v>
@@ -4732,7 +4882,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -4743,7 +4893,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C275" s="1">
         <v>0</v>
@@ -4754,7 +4904,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -4765,7 +4915,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -4776,7 +4926,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
@@ -4787,7 +4937,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -4798,7 +4948,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -4809,7 +4959,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -4820,7 +4970,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -4831,7 +4981,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283" s="1">
         <v>0</v>
@@ -4842,7 +4992,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -4853,7 +5003,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
@@ -4864,7 +5014,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
@@ -4875,7 +5025,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -4886,7 +5036,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C288" s="1">
         <v>0</v>
@@ -4897,7 +5047,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C289" s="1">
         <v>0</v>
@@ -4908,7 +5058,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C290" s="1">
         <v>0</v>
@@ -4919,7 +5069,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C291" s="1">
         <v>0</v>
@@ -4930,7 +5080,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C292" s="1">
         <v>0</v>
@@ -4941,7 +5091,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C293" s="1">
         <v>0</v>
@@ -4952,7 +5102,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C294" s="1">
         <v>0</v>
@@ -4963,7 +5113,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -4974,7 +5124,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C296" s="1">
         <v>0</v>
@@ -4985,7 +5135,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -4996,7 +5146,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -5007,7 +5157,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -5018,7 +5168,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -5029,7 +5179,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -5040,7 +5190,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -5051,7 +5201,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -5062,7 +5212,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -5073,7 +5223,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -5084,7 +5234,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -5095,7 +5245,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -5106,7 +5256,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -5117,7 +5267,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C309" s="1">
         <v>0</v>
@@ -5128,7 +5278,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C310" s="1">
         <v>0</v>
@@ -5138,155 +5288,341 @@
       <c r="A311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B311" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B312" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B313" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B314" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B315" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B316" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B317" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B319" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C320" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C321" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C322" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C323" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C324" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C325" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="57" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C327" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C328" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C330" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C331" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C332" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C333" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C334" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C335" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C336" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C337" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="C338" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C340" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
+      </c>
+      <c r="B341" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C341" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/extremism.xlsx
+++ b/datasets/extremism.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4470" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5416,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
-      <selection activeCell="A1630" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1537" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,7 +8901,7 @@
         <v>429</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
